--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powergrid1989-my.sharepoint.com/personal/sundeep_reddy_powergrid_in/Documents/Coding/newapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powergrid1989-my.sharepoint.com/personal/sundeep_reddy_powergrid_in/Documents/Coding/docbill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA76254D-AD27-6F44-869E-E29937654787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{285D8E40-24EE-8941-BBEB-600BD371D80F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EA76254D-AD27-6F44-869E-E29937654787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{368C13AB-7AFF-444E-81D7-A2FCB9A94260}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" activeTab="2" xr2:uid="{C40EDE7B-CB65-9544-A08D-E5536280471A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C40EDE7B-CB65-9544-A08D-E5536280471A}"/>
   </bookViews>
   <sheets>
     <sheet name="doctors" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1687,26 +1687,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E722FAC-CC98-864C-84D0-B4E1B185ED7F}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1820,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1856,24 +1854,6 @@
       </c>
       <c r="L4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO doctors (",$A$1:$L$1,") VALUES ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"','",K2,"','",L2,"')")</f>
-        <v>INSERT INTO doctors (docsl,docid,docfullname,docdob,docgender,docemail,docphone,docqualification,docexperience,docspecialization,docaltphone,docaddress) VALUES ('1','D01','Dr. Sailesh','1990-04-03','Male','sailesh@doc.com','9090909090','MD, MBBS','15 Years','Pulmonology','9990099900','Haryana')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" ref="A8:A9" si="0">_xlfn.CONCAT("INSERT INTO doctors (",$A$1:$L$1,") VALUES ('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"')")</f>
-        <v>INSERT INTO doctors (docsl,docid,docfullname,docdob,docgender,docemail,docphone,docqualification,docexperience,docspecialization,docaltphone,docaddress) VALUES ('2','D02','Dr. Kiran','1993-08-01','Female','kiran@doc.com','9900990099','MS, MBBS','10 Years','Gynecology','9009009009','Rajasthan')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO doctors (docsl,docid,docfullname,docdob,docgender,docemail,docphone,docqualification,docexperience,docspecialization,docaltphone,docaddress) VALUES ('3','D03','Dr. Kumar','1996-10-05','Male','kumar@doc.com','9099099090','DNB, MBBS','8 Years','General Medicine','9090090090','Telangana')</v>
       </c>
     </row>
   </sheetData>
@@ -1883,23 +1863,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E1E0C-3A60-1A47-8841-E8D17E59D38C}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1931,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1968,7 +1948,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2001,7 +1981,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2034,7 +2014,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2067,7 +2047,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2100,7 +2080,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2133,7 +2113,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2166,7 +2146,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2199,7 +2179,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2232,7 +2212,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2264,66 +2244,6 @@
         <v>61</v>
       </c>
       <c r="K11" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" ref="A14:A23" si="0">_xlfn.CONCAT("INSERT INTO patients (",$A$1:$J$1,") VALUES ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"','",H2,"','",I2,"','",J2,"')")</f>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('1','P24020101','Dhruv Choudhury','1980-01-01','Male','pat1@doc.com','9079190914','Haryana','9188989169','Wife')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('2','P24030506','Aarav Mistry','1982-02-02','Male','pat2@doc.com','9039064515','Rajasthan','9075945698','Brother')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('3','P24041002','Raina Malhotra','1983-04-03','Female','pat3@doc.com','9527443335','Punjab','9847894538','Husband')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('4','P24051112','Rajveer Patel','1985-01-04','Male','pat4@doc.com','9383743007','Gujarat','9224256310','Father')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('5','P24062203','Yuvraj Kumar','1989-06-05','Male','pat5@doc.com','9725204431','Delhi','9691753219','Son')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('6','P24071112','Varun Ghosh','1984-08-06','Male','pat6@doc.com','9249168072','West Bengal','9559490363','Wife')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('7','P24081601','Shilpa Kaushik','1986-10-07','Female','pat7@doc.com','9528129122','Uttar Pradesh','9777398365','Husband')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('8','P24092811','Sumitra Lakshman','1987-12-08','Female','pat8@doc.com','9339213552','Tamil Nadu','9443657022','Sister')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('9','P24101104','Hemant Mishra','1981-05-09','Male','pat9@doc.com','9940491231','Madhya Pradesh','9342103232','Daughter')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO patients (patientsl,patientid,patientfullname,patientdob,patientgender,patientemail,patientphone,patientaddress,patientaltcontact,patientrelation) VALUES ('10','P24113008','Divya Kumari','1988-11-10','Female','pat10@doc.com','9777930924','Andhra Pradesh','9756361631','Son')</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2333,32 +2253,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47810A06-EA80-5441-A933-96C630582C45}">
-  <dimension ref="A1:W304"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -2420,7 +2340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2471,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2522,7 +2442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2573,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2624,7 +2544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2675,7 +2595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2726,7 +2646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2777,7 +2697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2828,7 +2748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2879,7 +2799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2930,7 +2850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2981,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3032,7 +2952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3083,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3134,7 +3054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3185,7 +3105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3236,7 +3156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3287,7 +3207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3338,7 +3258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3389,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3440,7 +3360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3491,7 +3411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3542,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3593,7 +3513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3644,7 +3564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3695,7 +3615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3746,7 +3666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3797,7 +3717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3848,7 +3768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3899,7 +3819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3950,7 +3870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4001,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4052,7 +3972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4103,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4154,7 +4074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4205,7 +4125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4256,7 +4176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4307,7 +4227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4358,7 +4278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4409,7 +4329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4460,7 +4380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4511,7 +4431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4562,7 +4482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4613,7 +4533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4664,7 +4584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4715,7 +4635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4766,7 +4686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4817,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4868,7 +4788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4919,7 +4839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4970,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5021,7 +4941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5072,7 +4992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5123,7 +5043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5174,7 +5094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5225,7 +5145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5276,7 +5196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5327,7 +5247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5378,7 +5298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5429,7 +5349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5480,7 +5400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5531,7 +5451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5582,7 +5502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5633,7 +5553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5684,7 +5604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5735,7 +5655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5786,7 +5706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5837,7 +5757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5888,7 +5808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5939,7 +5859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5990,7 +5910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6041,7 +5961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6092,7 +6012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6143,7 +6063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6194,7 +6114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6245,7 +6165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6296,7 +6216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6347,7 +6267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6398,7 +6318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6449,7 +6369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6500,7 +6420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6551,7 +6471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6602,7 +6522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6653,7 +6573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6704,7 +6624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6755,7 +6675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6806,7 +6726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6857,7 +6777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6908,7 +6828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6959,7 +6879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7010,7 +6930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7061,7 +6981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7112,7 +7032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7163,7 +7083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7214,7 +7134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7265,7 +7185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7316,7 +7236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7367,7 +7287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7418,7 +7338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7469,7 +7389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7520,7 +7440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7571,7 +7491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7622,7 +7542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7673,7 +7593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7724,7 +7644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7775,7 +7695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7826,7 +7746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7877,7 +7797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7928,7 +7848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7979,7 +7899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8030,7 +7950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8081,7 +8001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8132,7 +8052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8183,7 +8103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8234,7 +8154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8285,7 +8205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8336,7 +8256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8387,7 +8307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8438,7 +8358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8489,7 +8409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8540,7 +8460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8591,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8642,7 +8562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8693,7 +8613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8744,7 +8664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8795,7 +8715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8846,7 +8766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8897,7 +8817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8948,7 +8868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8976,7 +8896,7 @@
         <v>500</v>
       </c>
       <c r="I130">
-        <f t="shared" ref="I130:I161" si="10">G130*H130</f>
+        <f t="shared" ref="I130:I151" si="10">G130*H130</f>
         <v>500</v>
       </c>
       <c r="R130">
@@ -8999,7 +8919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9050,7 +8970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9101,7 +9021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9152,7 +9072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9203,7 +9123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9254,7 +9174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9305,7 +9225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9356,7 +9276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9407,7 +9327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9458,7 +9378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9509,7 +9429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9560,7 +9480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9611,7 +9531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9662,7 +9582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9713,7 +9633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9764,7 +9684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9815,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9866,7 +9786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9917,7 +9837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9968,7 +9888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10019,7 +9939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10068,912 +9988,6 @@
       </c>
       <c r="W151">
         <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A154" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO bills (",A1:T1,") VALUES ")</f>
-        <v xml:space="preserve">INSERT INTO bills (billsl,billnumber,billdate,billdoctor,billpatdetails,billitem1,billqty1,billitemrate1,billitemtotal1,billitem2,billqty2,billitemrate2,billitemtotal2,billitem3,billqty3,billitemrate3,billitemtotal3,billtotal,billstatus,billmode) VALUES </v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A155" t="str">
-        <f>_xlfn.CONCAT("('",_xlfn.TEXTJOIN("','",FALSE,A2:T2),"'),")</f>
-        <v>('1','INV2310131352','2023-10-13','Dr. Sailesh','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A156" t="str">
-        <f t="shared" ref="A156:A219" si="14">_xlfn.CONCAT("('",_xlfn.TEXTJOIN("','",FALSE,A3:T3),"'),")</f>
-        <v>('2','INV2404041329','2024-04-04','Dr. Kiran','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A157" t="str">
-        <f t="shared" si="14"/>
-        <v>('3','INV2407170939','2024-07-17','Dr. Kumar','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A158" t="str">
-        <f t="shared" si="14"/>
-        <v>('4','INV2404021645','2024-04-02','Dr. Sailesh','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A159" t="str">
-        <f t="shared" si="14"/>
-        <v>('5','INV2304071616','2023-04-07','Dr. Kiran','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A160" t="str">
-        <f t="shared" si="14"/>
-        <v>('6','INV2407031541','2024-07-03','Dr. Kumar','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="str">
-        <f t="shared" si="14"/>
-        <v>('7','INV2308180913','2023-08-18','Dr. Sailesh','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="str">
-        <f t="shared" si="14"/>
-        <v>('8','INV2402010909','2024-02-01','Dr. Kiran','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="str">
-        <f t="shared" si="14"/>
-        <v>('9','INV2308030916','2023-08-03','Dr. Kumar','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="str">
-        <f t="shared" si="14"/>
-        <v>('10','INV2309301216','2023-09-30','Dr. Sailesh','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="str">
-        <f t="shared" si="14"/>
-        <v>('11','INV2404141517','2024-04-14','Dr. Kiran','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="str">
-        <f t="shared" si="14"/>
-        <v>('12','INV2303061144','2023-03-06','Dr. Kumar','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="str">
-        <f t="shared" si="14"/>
-        <v>('13','INV2406190925','2024-06-19','Dr. Sailesh','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="str">
-        <f t="shared" si="14"/>
-        <v>('14','INV2311141352','2023-11-14','Dr. Kiran','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="str">
-        <f t="shared" si="14"/>
-        <v>('15','INV2405151231','2024-05-15','Dr. Kumar','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="str">
-        <f t="shared" si="14"/>
-        <v>('16','INV2308070946','2023-08-07','Dr. Sailesh','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="str">
-        <f t="shared" si="14"/>
-        <v>('17','INV2306141009','2023-06-14','Dr. Kiran','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="str">
-        <f t="shared" si="14"/>
-        <v>('18','INV2401011649','2024-01-01','Dr. Kumar','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="str">
-        <f t="shared" si="14"/>
-        <v>('19','INV2405301659','2024-05-30','Dr. Sailesh','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="str">
-        <f t="shared" si="14"/>
-        <v>('20','INV2304291327','2023-04-29','Dr. Kiran','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="str">
-        <f t="shared" si="14"/>
-        <v>('21','INV2305091419','2023-05-09','Dr. Kumar','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="str">
-        <f t="shared" si="14"/>
-        <v>('22','INV2311240910','2023-11-24','Dr. Sailesh','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="str">
-        <f t="shared" si="14"/>
-        <v>('23','INV2407141439','2024-07-14','Dr. Kiran','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="str">
-        <f t="shared" si="14"/>
-        <v>('24','INV2303131205','2023-03-13','Dr. Kumar','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="str">
-        <f t="shared" si="14"/>
-        <v>('25','INV2307281022','2023-07-28','Dr. Sailesh','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="str">
-        <f t="shared" si="14"/>
-        <v>('26','INV2403071609','2024-03-07','Dr. Kiran','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="str">
-        <f t="shared" si="14"/>
-        <v>('27','INV2303281513','2023-03-28','Dr. Kumar','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="str">
-        <f t="shared" si="14"/>
-        <v>('28','INV2302141114','2023-02-14','Dr. Sailesh','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="str">
-        <f t="shared" si="14"/>
-        <v>('29','INV2403061337','2024-03-06','Dr. Kiran','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="str">
-        <f t="shared" si="14"/>
-        <v>('30','INV2406180925','2024-06-18','Dr. Kumar','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="str">
-        <f t="shared" si="14"/>
-        <v>('31','INV2404281057','2024-04-28','Dr. Sailesh','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="str">
-        <f t="shared" si="14"/>
-        <v>('32','INV2307161432','2023-07-16','Dr. Kiran','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="str">
-        <f t="shared" si="14"/>
-        <v>('33','INV2305101537','2023-05-10','Dr. Kumar','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="str">
-        <f t="shared" si="14"/>
-        <v>('34','INV2304281206','2023-04-28','Dr. Sailesh','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="str">
-        <f t="shared" si="14"/>
-        <v>('35','INV2312241240','2023-12-24','Dr. Kiran','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="str">
-        <f t="shared" si="14"/>
-        <v>('36','INV2407091413','2024-07-09','Dr. Kumar','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="str">
-        <f t="shared" si="14"/>
-        <v>('37','INV2402020909','2024-02-02','Dr. Sailesh','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="str">
-        <f t="shared" si="14"/>
-        <v>('38','INV2308210926','2023-08-21','Dr. Kiran','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="str">
-        <f t="shared" si="14"/>
-        <v>('39','INV2304090951','2023-04-09','Dr. Kumar','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="str">
-        <f t="shared" si="14"/>
-        <v>('40','INV2303311609','2023-03-31','Dr. Sailesh','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="str">
-        <f t="shared" si="14"/>
-        <v>('41','INV2310100936','2023-10-10','Dr. Kiran','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="str">
-        <f t="shared" si="14"/>
-        <v>('42','INV2306221152','2023-06-22','Dr. Kumar','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="str">
-        <f t="shared" si="14"/>
-        <v>('43','INV2310090912','2023-10-09','Dr. Sailesh','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="str">
-        <f t="shared" si="14"/>
-        <v>('44','INV2308111423','2023-08-11','Dr. Kiran','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="str">
-        <f t="shared" si="14"/>
-        <v>('45','INV2302271250','2023-02-27','Dr. Kumar','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="str">
-        <f t="shared" si="14"/>
-        <v>('46','INV2407111037','2024-07-11','Dr. Sailesh','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="str">
-        <f t="shared" si="14"/>
-        <v>('47','INV2402281227','2024-02-28','Dr. Kiran','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="str">
-        <f t="shared" si="14"/>
-        <v>('48','INV2311121428','2023-11-12','Dr. Kumar','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="str">
-        <f t="shared" si="14"/>
-        <v>('49','INV2307161549','2023-07-16','Dr. Sailesh','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="str">
-        <f t="shared" si="14"/>
-        <v>('50','INV2402271657','2024-02-27','Dr. Kiran','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="str">
-        <f t="shared" si="14"/>
-        <v>('51','INV2308151559','2023-08-15','Dr. Kumar','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="str">
-        <f t="shared" si="14"/>
-        <v>('52','INV2312181156','2023-12-18','Dr. Sailesh','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="str">
-        <f t="shared" si="14"/>
-        <v>('53','INV2309091037','2023-09-09','Dr. Kiran','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="str">
-        <f t="shared" si="14"/>
-        <v>('54','INV2305311619','2023-05-31','Dr. Kumar','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="str">
-        <f t="shared" si="14"/>
-        <v>('55','INV2401311123','2024-01-31','Dr. Sailesh','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="str">
-        <f t="shared" si="14"/>
-        <v>('56','INV2306071110','2023-06-07','Dr. Kiran','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="str">
-        <f t="shared" si="14"/>
-        <v>('57','INV2403071247','2024-03-07','Dr. Kumar','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="str">
-        <f t="shared" si="14"/>
-        <v>('58','INV2401221141','2024-01-22','Dr. Sailesh','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="str">
-        <f t="shared" si="14"/>
-        <v>('59','INV2404211558','2024-04-21','Dr. Kiran','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="str">
-        <f t="shared" si="14"/>
-        <v>('60','INV2405241515','2024-05-24','Dr. Kumar','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="str">
-        <f t="shared" si="14"/>
-        <v>('61','INV2309111058','2023-09-11','Dr. Sailesh','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="str">
-        <f t="shared" si="14"/>
-        <v>('62','INV2307151035','2023-07-15','Dr. Kiran','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="str">
-        <f t="shared" si="14"/>
-        <v>('63','INV2405311115','2024-05-31','Dr. Kumar','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="str">
-        <f t="shared" si="14"/>
-        <v>('64','INV2307151640','2023-07-15','Dr. Sailesh','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="str">
-        <f t="shared" si="14"/>
-        <v>('65','INV2311161153','2023-11-16','Dr. Kiran','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="str">
-        <f t="shared" ref="A220:A283" si="15">_xlfn.CONCAT("('",_xlfn.TEXTJOIN("','",FALSE,A67:T67),"'),")</f>
-        <v>('66','INV2308041624','2023-08-04','Dr. Kumar','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="str">
-        <f t="shared" si="15"/>
-        <v>('67','INV2312081250','2023-12-08','Dr. Sailesh','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="str">
-        <f t="shared" si="15"/>
-        <v>('68','INV2307091338','2023-07-09','Dr. Kiran','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="str">
-        <f t="shared" si="15"/>
-        <v>('69','INV2304261316','2023-04-26','Dr. Kumar','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="str">
-        <f t="shared" si="15"/>
-        <v>('70','INV2307151628','2023-07-15','Dr. Sailesh','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="str">
-        <f t="shared" si="15"/>
-        <v>('71','INV2404091629','2024-04-09','Dr. Kiran','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="str">
-        <f t="shared" si="15"/>
-        <v>('72','INV2406270913','2024-06-27','Dr. Kumar','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="str">
-        <f t="shared" si="15"/>
-        <v>('73','INV2308071322','2023-08-07','Dr. Sailesh','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="str">
-        <f t="shared" si="15"/>
-        <v>('74','INV2307201057','2023-07-20','Dr. Kiran','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="str">
-        <f t="shared" si="15"/>
-        <v>('75','INV2402101135','2024-02-10','Dr. Kumar','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="str">
-        <f t="shared" si="15"/>
-        <v>('76','INV2311211449','2023-11-21','Dr. Sailesh','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="str">
-        <f t="shared" si="15"/>
-        <v>('77','INV2302121009','2023-02-12','Dr. Kiran','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="str">
-        <f t="shared" si="15"/>
-        <v>('78','INV2304191616','2023-04-19','Dr. Kumar','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="str">
-        <f t="shared" si="15"/>
-        <v>('79','INV2406050933','2024-06-05','Dr. Sailesh','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="str">
-        <f t="shared" si="15"/>
-        <v>('80','INV2401051337','2024-01-05','Dr. Kiran','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="str">
-        <f t="shared" si="15"/>
-        <v>('81','INV2309031059','2023-09-03','Dr. Kumar','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="str">
-        <f t="shared" si="15"/>
-        <v>('82','INV2308171646','2023-08-17','Dr. Sailesh','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="str">
-        <f t="shared" si="15"/>
-        <v>('83','INV2405270904','2024-05-27','Dr. Kiran','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="str">
-        <f t="shared" si="15"/>
-        <v>('84','INV2401221117','2024-01-22','Dr. Kumar','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="str">
-        <f t="shared" si="15"/>
-        <v>('85','INV2309181437','2023-09-18','Dr. Sailesh','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="str">
-        <f t="shared" si="15"/>
-        <v>('86','INV2406211246','2024-06-21','Dr. Kiran','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="str">
-        <f t="shared" si="15"/>
-        <v>('87','INV2407121032','2024-07-12','Dr. Kumar','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="str">
-        <f t="shared" si="15"/>
-        <v>('88','INV2304201225','2023-04-20','Dr. Sailesh','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="str">
-        <f t="shared" si="15"/>
-        <v>('89','INV2306061149','2023-06-06','Dr. Kiran','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="str">
-        <f t="shared" si="15"/>
-        <v>('90','INV2405081152','2024-05-08','Dr. Kumar','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="str">
-        <f t="shared" si="15"/>
-        <v>('91','INV2306041247','2023-06-04','Dr. Sailesh','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="str">
-        <f t="shared" si="15"/>
-        <v>('92','INV2304241112','2023-04-24','Dr. Kiran','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="str">
-        <f t="shared" si="15"/>
-        <v>('93','INV2403121234','2024-03-12','Dr. Kumar','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="str">
-        <f t="shared" si="15"/>
-        <v>('94','INV2310311245','2023-10-31','Dr. Sailesh','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="str">
-        <f t="shared" si="15"/>
-        <v>('95','INV2405061122','2024-05-06','Dr. Kiran','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="str">
-        <f t="shared" si="15"/>
-        <v>('96','INV2310191112','2023-10-19','Dr. Kumar','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="str">
-        <f t="shared" si="15"/>
-        <v>('97','INV2305291504','2023-05-29','Dr. Sailesh','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="str">
-        <f t="shared" si="15"/>
-        <v>('98','INV2308191425','2023-08-19','Dr. Kiran','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="str">
-        <f t="shared" si="15"/>
-        <v>('99','INV2307201536','2023-07-20','Dr. Kumar','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="str">
-        <f t="shared" si="15"/>
-        <v>('100','INV2302211632','2023-02-21','Dr. Sailesh','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="str">
-        <f t="shared" si="15"/>
-        <v>('101','INV2311130900','2023-11-13','Dr. Kiran','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="str">
-        <f t="shared" si="15"/>
-        <v>('102','INV2311011432','2023-11-01','Dr. Kumar','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="str">
-        <f t="shared" si="15"/>
-        <v>('103','INV2303031046','2023-03-03','Dr. Sailesh','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="str">
-        <f t="shared" si="15"/>
-        <v>('104','INV2301190949','2023-01-19','Dr. Kiran','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="str">
-        <f t="shared" si="15"/>
-        <v>('105','INV2403261336','2024-03-26','Dr. Kumar','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="str">
-        <f t="shared" si="15"/>
-        <v>('106','INV2301201112','2023-01-20','Dr. Sailesh','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="str">
-        <f t="shared" si="15"/>
-        <v>('107','INV2308031445','2023-08-03','Dr. Kiran','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="str">
-        <f t="shared" si="15"/>
-        <v>('108','INV2303221403','2023-03-22','Dr. Kumar','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="str">
-        <f t="shared" si="15"/>
-        <v>('109','INV2304051627','2023-04-05','Dr. Sailesh','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="str">
-        <f t="shared" si="15"/>
-        <v>('110','INV2310101124','2023-10-10','Dr. Kiran','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="str">
-        <f t="shared" si="15"/>
-        <v>('111','INV2312310929','2023-12-31','Dr. Kumar','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="str">
-        <f t="shared" si="15"/>
-        <v>('112','INV2404151314','2024-04-15','Dr. Sailesh','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="str">
-        <f t="shared" si="15"/>
-        <v>('113','INV2407101651','2024-07-10','Dr. Kiran','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="str">
-        <f t="shared" si="15"/>
-        <v>('114','INV2312041342','2023-12-04','Dr. Kumar','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="str">
-        <f t="shared" si="15"/>
-        <v>('115','INV2311141247','2023-11-14','Dr. Sailesh','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="str">
-        <f t="shared" si="15"/>
-        <v>('116','INV2312221110','2023-12-22','Dr. Kiran','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="str">
-        <f t="shared" si="15"/>
-        <v>('117','INV2310061055','2023-10-06','Dr. Kumar','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="str">
-        <f t="shared" si="15"/>
-        <v>('118','INV2405301404','2024-05-30','Dr. Sailesh','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="str">
-        <f t="shared" si="15"/>
-        <v>('119','INV2407201617','2024-07-20','Dr. Kiran','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="str">
-        <f t="shared" si="15"/>
-        <v>('120','INV2310141209','2023-10-14','Dr. Kumar','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="str">
-        <f t="shared" si="15"/>
-        <v>('121','INV2303221514','2023-03-22','Dr. Sailesh','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="str">
-        <f t="shared" si="15"/>
-        <v>('122','INV2301181147','2023-01-18','Dr. Kiran','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="str">
-        <f t="shared" si="15"/>
-        <v>('123','INV2404300930','2024-04-30','Dr. Kumar','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="str">
-        <f t="shared" si="15"/>
-        <v>('124','INV2308081223','2023-08-08','Dr. Sailesh','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="str">
-        <f t="shared" si="15"/>
-        <v>('125','INV2304041108','2023-04-04','Dr. Kiran','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="str">
-        <f t="shared" si="15"/>
-        <v>('126','INV2308121053','2023-08-12','Dr. Kumar','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="str">
-        <f t="shared" si="15"/>
-        <v>('127','INV2307061205','2023-07-06','Dr. Sailesh','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="str">
-        <f t="shared" si="15"/>
-        <v>('128','INV2304061607','2023-04-06','Dr. Kiran','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="str">
-        <f t="shared" si="15"/>
-        <v>('129','INV2306271105','2023-06-27','Dr. Kumar','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="str">
-        <f t="shared" ref="A284:A304" si="16">_xlfn.CONCAT("('",_xlfn.TEXTJOIN("','",FALSE,A131:T131),"'),")</f>
-        <v>('130','INV2306191042','2023-06-19','Dr. Sailesh','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="str">
-        <f t="shared" si="16"/>
-        <v>('131','INV2305061542','2023-05-06','Dr. Kiran','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="str">
-        <f t="shared" si="16"/>
-        <v>('132','INV2311041141','2023-11-04','Dr. Kumar','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="str">
-        <f t="shared" si="16"/>
-        <v>('133','INV2304261552','2023-04-26','Dr. Sailesh','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="str">
-        <f t="shared" si="16"/>
-        <v>('134','INV2401201543','2024-01-20','Dr. Kiran','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="str">
-        <f t="shared" si="16"/>
-        <v>('135','INV2303131336','2023-03-13','Dr. Kumar','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="str">
-        <f t="shared" si="16"/>
-        <v>('136','INV2404101430','2024-04-10','Dr. Sailesh','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="str">
-        <f t="shared" si="16"/>
-        <v>('137','INV2306031156','2023-06-03','Dr. Kiran','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="str">
-        <f t="shared" si="16"/>
-        <v>('138','INV2310121646','2023-10-12','Dr. Kumar','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="str">
-        <f t="shared" si="16"/>
-        <v>('139','INV2301271510','2023-01-27','Dr. Sailesh','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Consultation','1','350','350','','','','','','','','','350','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="str">
-        <f t="shared" si="16"/>
-        <v>('140','INV2407191119','2024-07-19','Dr. Kiran','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="str">
-        <f t="shared" si="16"/>
-        <v>('141','INV2405271251','2024-05-27','Dr. Kumar','Name: Dhruv Choudhury | ID: P24020101 | Phone: 9079190914','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="str">
-        <f t="shared" si="16"/>
-        <v>('142','INV2305281005','2023-05-28','Dr. Sailesh','Name: Aarav Mistry | ID: P24030506 | Phone: 9039064515','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="str">
-        <f t="shared" si="16"/>
-        <v>('143','INV2302081436','2023-02-08','Dr. Kiran','Name: Raina Malhotra | ID: P24041002 | Phone: 9527443335','Injection','1','250','250','','','','','','','','','250','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="str">
-        <f t="shared" si="16"/>
-        <v>('144','INV2312041613','2023-12-04','Dr. Kumar','Name: Rajveer Patel | ID: P24051112 | Phone: 9383743007','Procedure','1','500','500','','','','','','','','','500','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="str">
-        <f t="shared" si="16"/>
-        <v>('145','INV2405140906','2024-05-14','Dr. Sailesh','Name: Yuvraj Kumar | ID: P24062203 | Phone: 9725204431','Consultation','1','350','350','','','','','','','','','350','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="str">
-        <f t="shared" si="16"/>
-        <v>('146','INV2407101417','2024-07-10','Dr. Kiran','Name: Varun Ghosh | ID: P24071112 | Phone: 9249168072','Injection','1','250','250','','','','','','','','','250','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" t="str">
-        <f t="shared" si="16"/>
-        <v>('147','INV2301101320','2023-01-10','Dr. Kumar','Name: Shilpa Kaushik | ID: P24081601 | Phone: 9528129122','Procedure','1','500','500','','','','','','','','','500','Paid','Card'),</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" t="str">
-        <f t="shared" si="16"/>
-        <v>('148','INV2406151442','2024-06-15','Dr. Sailesh','Name: Sumitra Lakshman | ID: P24092811 | Phone: 9339213552','Consultation','1','350','350','','','','','','','','','350','Paid','UPI'),</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" t="str">
-        <f t="shared" si="16"/>
-        <v>('149','INV2305061402','2023-05-06','Dr. Kiran','Name: Hemant Mishra | ID: P24101104 | Phone: 9940491231','Injection','1','250','250','','','','','','','','','250','Paid','Cash'),</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" t="str">
-        <f t="shared" si="16"/>
-        <v>('150','INV2407311519','2024-07-31','Dr. Kumar','Name: Divya Kumari | ID: P24113008 | Phone: 9777930924','Procedure','1','500','500','','','','','','','','','500','Paid','Cash'),</v>
       </c>
     </row>
   </sheetData>
